--- a/Donnees .xlsx
+++ b/Donnees .xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dragonlysa18\Documents\FISE 2\Projet Image\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dragonlysa18\Documents\FISE 2\Projet Image\GitImage\ProjetImage\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="30">
   <si>
     <t>Copper</t>
   </si>
@@ -50,9 +50,6 @@
     <t>moy copper:</t>
   </si>
   <si>
-    <t>Gold</t>
-  </si>
-  <si>
     <t>Silver</t>
   </si>
   <si>
@@ -71,20 +68,59 @@
     <t>Moyenne White:</t>
   </si>
   <si>
-    <t>moyenne tot</t>
-  </si>
-  <si>
     <t>Moyenne Gold 1:</t>
   </si>
   <si>
     <t>Moyenne Gold 2:</t>
+  </si>
+  <si>
+    <t>R</t>
+  </si>
+  <si>
+    <t>G</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>Gold II</t>
+  </si>
+  <si>
+    <t>Gold I</t>
+  </si>
+  <si>
+    <t>moyenne générale des Scale factors</t>
+  </si>
+  <si>
+    <t>1 centime:</t>
+  </si>
+  <si>
+    <t>2 centimes:</t>
+  </si>
+  <si>
+    <t>5 centimes</t>
+  </si>
+  <si>
+    <t>10 centimes</t>
+  </si>
+  <si>
+    <t>20 centimes</t>
+  </si>
+  <si>
+    <t>50 centimes</t>
+  </si>
+  <si>
+    <t>1 Euro</t>
+  </si>
+  <si>
+    <t>2 Euros</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -92,16 +128,60 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.34998626667073579"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="9">
+  <borders count="21">
     <border>
       <left/>
       <right/>
@@ -172,60 +252,319 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color indexed="64"/>
       </left>
       <right style="medium">
         <color indexed="64"/>
       </right>
-      <top style="medium">
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
         <color indexed="64"/>
       </top>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="74">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="20" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="20" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FF9E480E"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -534,10 +873,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{76937D94-5561-4F0F-AC60-CAD19876EAF5}">
-  <dimension ref="A1:L61"/>
+  <dimension ref="A1:L70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="C71" sqref="C71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -546,821 +885,986 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B1" s="1" t="s">
+      <c r="A1" s="63" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1" s="55" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
+      <c r="C1" s="55"/>
+      <c r="D1" s="56"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2">
+      <c r="A2" s="20"/>
+      <c r="B2" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2" s="50" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="20">
         <v>5.6000000000000001E-2</v>
       </c>
-      <c r="B2">
+      <c r="B3" s="3">
         <v>155</v>
       </c>
-      <c r="C2">
+      <c r="C3" s="3">
         <v>91</v>
       </c>
-      <c r="D2">
+      <c r="D3" s="47">
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="20">
         <v>5.6000000000000001E-2</v>
       </c>
-      <c r="B3">
+      <c r="B4" s="3">
         <v>219</v>
       </c>
-      <c r="C3">
+      <c r="C4" s="3">
         <v>158</v>
       </c>
-      <c r="D3">
+      <c r="D4" s="47">
         <v>94</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="20">
         <v>5.7000000000000002E-2</v>
       </c>
-      <c r="B4">
+      <c r="B5" s="3">
         <v>166</v>
       </c>
-      <c r="C4">
+      <c r="C5" s="3">
         <v>93</v>
       </c>
-      <c r="D4">
+      <c r="D5" s="47">
         <v>28</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5">
+    <row r="6" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="24">
         <v>5.4899999999999997E-2</v>
       </c>
-      <c r="B5">
+      <c r="B6" s="48">
         <v>193</v>
       </c>
-      <c r="C5">
+      <c r="C6" s="48">
         <v>131</v>
       </c>
-      <c r="D5">
+      <c r="D6" s="49">
         <v>71</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="8" t="s">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="64" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="9">
-        <f>(A2+A3+A4+A5)/4</f>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="18">
+        <f>(A3+A4+A5+A6)/4</f>
         <v>5.5975000000000004E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9">
+    <row r="9" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="63" t="s">
+        <v>23</v>
+      </c>
+      <c r="B10" s="51"/>
+      <c r="C10" s="51"/>
+      <c r="D10" s="52"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="20">
         <v>5.5300000000000002E-2</v>
       </c>
-      <c r="B9">
+      <c r="B11" s="3">
         <v>188</v>
       </c>
-      <c r="C9">
+      <c r="C11" s="3">
         <v>134</v>
       </c>
-      <c r="D9">
+      <c r="D11" s="47">
         <v>80</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="20">
         <v>5.5500000000000001E-2</v>
       </c>
-      <c r="B10">
+      <c r="B12" s="3">
         <v>182</v>
       </c>
-      <c r="C10">
+      <c r="C12" s="3">
         <v>129</v>
       </c>
-      <c r="D10">
+      <c r="D12" s="47">
         <v>77</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="20">
         <v>5.5599999999999997E-2</v>
       </c>
-      <c r="B11">
+      <c r="B13" s="3">
         <v>186</v>
       </c>
-      <c r="C11">
+      <c r="C13" s="3">
         <v>133</v>
       </c>
-      <c r="D11">
+      <c r="D13" s="47">
         <v>75</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12">
+    <row r="14" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="24">
         <v>5.5599999999999997E-2</v>
       </c>
-      <c r="B12">
+      <c r="B14" s="48">
         <v>188</v>
       </c>
-      <c r="C12">
+      <c r="C14" s="48">
         <v>134</v>
       </c>
-      <c r="D12">
+      <c r="D14" s="49">
         <v>77</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="8" t="s">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="64" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="9">
-        <f>(A9+A10+A11+A12)/4</f>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="18">
+        <f>(A11+A12+A13+A14)/4</f>
         <v>5.5499999999999994E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16">
+    <row r="17" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="63" t="s">
+        <v>24</v>
+      </c>
+      <c r="B18" s="51"/>
+      <c r="C18" s="51"/>
+      <c r="D18" s="52"/>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="20">
         <v>5.5300000000000002E-2</v>
       </c>
-      <c r="B16">
+      <c r="B19" s="3">
         <v>171</v>
       </c>
-      <c r="C16">
+      <c r="C19" s="3">
         <v>113</v>
       </c>
-      <c r="D16">
+      <c r="D19" s="47">
         <v>61</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="20">
         <v>5.3999999999999999E-2</v>
       </c>
-      <c r="B17">
+      <c r="B20" s="3">
         <v>174</v>
       </c>
-      <c r="C17">
+      <c r="C20" s="3">
         <v>116</v>
       </c>
-      <c r="D17">
+      <c r="D20" s="47">
         <v>64</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="20">
         <v>5.4100000000000002E-2</v>
       </c>
-      <c r="B18">
+      <c r="B21" s="3">
         <v>223</v>
       </c>
-      <c r="C18">
+      <c r="C21" s="3">
         <v>171</v>
       </c>
-      <c r="D18">
+      <c r="D21" s="47">
         <v>106</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19">
+    <row r="22" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="24">
         <v>5.4100000000000002E-2</v>
       </c>
-      <c r="B19">
+      <c r="B22" s="48">
         <v>222</v>
       </c>
-      <c r="C19">
+      <c r="C22" s="48">
         <v>171</v>
       </c>
-      <c r="D19">
+      <c r="D22" s="49">
         <v>105</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="8" t="s">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="64" t="s">
         <v>3</v>
       </c>
-      <c r="B20" s="2" t="s">
+      <c r="B23" s="65" t="s">
         <v>7</v>
       </c>
-      <c r="C20" s="3"/>
-      <c r="D20" s="4"/>
-    </row>
-    <row r="21" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="9">
-        <f>(A16+A17+A18+A19)/4</f>
+      <c r="C23" s="65"/>
+      <c r="D23" s="65"/>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="43">
+        <f>(A19+A20+A21+A22)/4</f>
         <v>5.4375000000000007E-2</v>
       </c>
-      <c r="B21" s="5">
-        <f>(B2+B3+B4+B5+B9+B10+B11+B12+B16+B17+B18+B19)/12</f>
+      <c r="B24" s="44">
+        <f>(B3+B4+B5+B6+B11+B12+B13+B14+B19+B20+B21+B22)/12</f>
         <v>188.91666666666666</v>
       </c>
-      <c r="C21" s="6">
-        <f t="shared" ref="C21:D21" si="0">(C2+C3+C4+C5+C9+C10+C11+C12+C16+C17+C18+C19)/12</f>
+      <c r="C24" s="44">
+        <f t="shared" ref="C24:D24" si="0">(C3+C4+C5+C6+C11+C12+C13+C14+C19+C20+C21+C22)/12</f>
         <v>131.16666666666666</v>
       </c>
-      <c r="D21" s="7">
+      <c r="D24" s="44">
         <f t="shared" si="0"/>
         <v>72.916666666666671</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B23" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C23" s="1"/>
-      <c r="D23" s="1"/>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24">
+    <row r="25" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="2"/>
+      <c r="B25" s="2"/>
+      <c r="C25" s="2"/>
+      <c r="D25" s="2"/>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" s="63" t="s">
+        <v>25</v>
+      </c>
+      <c r="B26" s="57" t="s">
+        <v>20</v>
+      </c>
+      <c r="C26" s="57"/>
+      <c r="D26" s="58"/>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" s="20"/>
+      <c r="B27" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C27" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D27" s="45" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" s="20">
         <v>5.5899999999999998E-2</v>
       </c>
-      <c r="B24">
+      <c r="B28" s="5">
         <v>182</v>
       </c>
-      <c r="C24">
+      <c r="C28" s="5">
         <v>144</v>
       </c>
-      <c r="D24">
+      <c r="D28" s="46">
         <v>58</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" s="20">
         <v>5.6099999999999997E-2</v>
       </c>
-      <c r="B25">
+      <c r="B29" s="6">
         <v>182</v>
       </c>
-      <c r="C25">
+      <c r="C29" s="6">
         <v>143</v>
       </c>
-      <c r="D25">
+      <c r="D29" s="38">
         <v>55</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" s="20">
         <v>5.5599999999999997E-2</v>
       </c>
-      <c r="B26">
+      <c r="B30" s="6">
         <v>192</v>
       </c>
-      <c r="C26">
+      <c r="C30" s="6">
         <v>154</v>
       </c>
-      <c r="D26">
+      <c r="D30" s="38">
         <v>61</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27">
+    <row r="31" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="24">
         <v>5.6099999999999997E-2</v>
       </c>
-      <c r="B27">
+      <c r="B31" s="41">
         <v>181</v>
       </c>
-      <c r="C27">
+      <c r="C31" s="41">
         <v>141</v>
       </c>
-      <c r="D27">
+      <c r="D31" s="42">
         <v>55</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" s="8" t="s">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" s="64" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="9">
-        <f>(A24+A25+A26+A27)/4</f>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" s="18">
+        <f>(A28+A29+A30+A31)/4</f>
         <v>5.5924999999999989E-2</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31">
+    <row r="34" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" s="63" t="s">
+        <v>26</v>
+      </c>
+      <c r="B35" s="53"/>
+      <c r="C35" s="53"/>
+      <c r="D35" s="54"/>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" s="20">
         <v>5.5899999999999998E-2</v>
       </c>
-      <c r="B31">
+      <c r="B36" s="6">
         <v>149</v>
       </c>
-      <c r="C31">
+      <c r="C36" s="6">
         <v>112</v>
       </c>
-      <c r="D31">
+      <c r="D36" s="38">
         <v>43</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" s="20">
         <v>5.6000000000000001E-2</v>
       </c>
-      <c r="B32">
+      <c r="B37" s="6">
         <v>149</v>
       </c>
-      <c r="C32">
+      <c r="C37" s="6">
         <v>112</v>
       </c>
-      <c r="D32">
+      <c r="D37" s="38">
         <v>43</v>
       </c>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A33">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" s="20">
         <v>5.5899999999999998E-2</v>
       </c>
-      <c r="B33">
+      <c r="B38" s="6">
         <v>147</v>
       </c>
-      <c r="C33">
+      <c r="C38" s="6">
         <v>110</v>
       </c>
-      <c r="D33">
+      <c r="D38" s="38">
         <v>41</v>
       </c>
     </row>
-    <row r="34" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34">
+    <row r="39" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="24">
         <v>5.5300000000000002E-2</v>
       </c>
-      <c r="B34">
+      <c r="B39" s="41">
         <v>152</v>
       </c>
-      <c r="C34">
+      <c r="C39" s="41">
         <v>114</v>
       </c>
-      <c r="D34">
+      <c r="D39" s="42">
         <v>43</v>
       </c>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A35" s="8" t="s">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" s="64" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="36" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="9">
-        <f>(A31+A32+A33+A34)/4</f>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41" s="18">
+        <f>(A36+A37+A38+A39)/4</f>
         <v>5.5775000000000005E-2</v>
       </c>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A38">
+    <row r="42" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43" s="63" t="s">
+        <v>27</v>
+      </c>
+      <c r="B43" s="53"/>
+      <c r="C43" s="53"/>
+      <c r="D43" s="54"/>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44" s="20">
         <v>5.3999999999999999E-2</v>
       </c>
-      <c r="B38">
+      <c r="B44" s="6">
         <v>176</v>
       </c>
-      <c r="C38">
+      <c r="C44" s="6">
         <v>135</v>
       </c>
-      <c r="D38">
+      <c r="D44" s="38">
         <v>44</v>
       </c>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A39">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45" s="20">
         <v>5.3999999999999999E-2</v>
       </c>
-      <c r="B39">
+      <c r="B45" s="6">
         <v>176</v>
       </c>
-      <c r="C39">
+      <c r="C45" s="6">
         <v>135</v>
       </c>
-      <c r="D39">
+      <c r="D45" s="38">
         <v>44</v>
       </c>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A40">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A46" s="20">
         <v>5.4300000000000001E-2</v>
       </c>
-      <c r="B40">
+      <c r="B46" s="6">
         <v>167</v>
       </c>
-      <c r="C40">
+      <c r="C46" s="6">
         <v>126</v>
       </c>
-      <c r="D40">
+      <c r="D46" s="38">
         <v>37</v>
       </c>
     </row>
-    <row r="41" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A41">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A47" s="20">
         <v>5.4100000000000002E-2</v>
       </c>
-      <c r="B41">
+      <c r="B47" s="6">
         <v>167</v>
       </c>
-      <c r="C41">
+      <c r="C47" s="6">
         <v>126</v>
       </c>
-      <c r="D41">
+      <c r="D47" s="38">
         <v>36</v>
       </c>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A42" s="8" t="s">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A48" s="66" t="s">
         <v>6</v>
       </c>
-      <c r="B42" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C42" s="3"/>
-      <c r="D42" s="4"/>
-    </row>
-    <row r="43" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="9">
-        <f>(A38+A39+A40+A41)/4</f>
+      <c r="B48" s="67" t="s">
+        <v>14</v>
+      </c>
+      <c r="C48" s="67"/>
+      <c r="D48" s="68"/>
+    </row>
+    <row r="49" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="29">
+        <f>(A44+A45+A46+A47)/4</f>
         <v>5.4100000000000002E-2</v>
       </c>
-      <c r="B43" s="5">
-        <f>SUM(B24:B41) / 12</f>
+      <c r="B49" s="39">
+        <f>SUM(B28:B47) / 12</f>
         <v>168.33333333333334</v>
       </c>
-      <c r="C43" s="5">
-        <f t="shared" ref="C43:D43" si="1">SUM(C24:C41) / 12</f>
+      <c r="C49" s="39">
+        <f t="shared" ref="C49:D49" si="1">SUM(C28:C47) / 12</f>
         <v>129.33333333333334</v>
       </c>
-      <c r="D43" s="5">
+      <c r="D49" s="40">
         <f t="shared" si="1"/>
         <v>46.666666666666664</v>
       </c>
     </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="F44" s="1" t="s">
+    <row r="50" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F50" s="11"/>
+      <c r="G50" s="11"/>
+      <c r="H50" s="11"/>
+      <c r="J50" s="11"/>
+      <c r="K50" s="11"/>
+      <c r="L50" s="11"/>
+    </row>
+    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A51" s="63" t="s">
+        <v>28</v>
+      </c>
+      <c r="B51" s="59" t="s">
+        <v>19</v>
+      </c>
+      <c r="C51" s="59"/>
+      <c r="D51" s="59"/>
+      <c r="E51" s="19"/>
+      <c r="F51" s="60" t="s">
+        <v>8</v>
+      </c>
+      <c r="G51" s="60"/>
+      <c r="H51" s="60"/>
+      <c r="I51" s="19"/>
+      <c r="J51" s="61" t="s">
         <v>9</v>
       </c>
-      <c r="G44" s="1"/>
-      <c r="H44" s="1"/>
-      <c r="J44" s="1" t="s">
+      <c r="K51" s="61"/>
+      <c r="L51" s="62"/>
+    </row>
+    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A52" s="20"/>
+      <c r="B52" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="C52" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="D52" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="E52" s="2"/>
+      <c r="F52" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="G52" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="H52" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="I52" s="2"/>
+      <c r="J52" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="K52" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="L52" s="21" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A53" s="20">
+        <v>5.5800000000000002E-2</v>
+      </c>
+      <c r="B53" s="8">
+        <v>170</v>
+      </c>
+      <c r="C53" s="8">
+        <v>135</v>
+      </c>
+      <c r="D53" s="8">
+        <v>68</v>
+      </c>
+      <c r="E53" s="2"/>
+      <c r="F53" s="12">
+        <v>143</v>
+      </c>
+      <c r="G53" s="12">
+        <v>120</v>
+      </c>
+      <c r="H53" s="12">
+        <v>85</v>
+      </c>
+      <c r="I53" s="2"/>
+      <c r="J53" s="15">
+        <v>209</v>
+      </c>
+      <c r="K53" s="15">
+        <v>189</v>
+      </c>
+      <c r="L53" s="22">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A54" s="20">
+        <v>5.5599999999999997E-2</v>
+      </c>
+      <c r="B54" s="9">
+        <v>164</v>
+      </c>
+      <c r="C54" s="9">
+        <v>130</v>
+      </c>
+      <c r="D54" s="9">
+        <v>66</v>
+      </c>
+      <c r="E54" s="2"/>
+      <c r="F54" s="13">
+        <v>144</v>
+      </c>
+      <c r="G54" s="13">
+        <v>121</v>
+      </c>
+      <c r="H54" s="13">
+        <v>86</v>
+      </c>
+      <c r="I54" s="2"/>
+      <c r="J54" s="16">
+        <v>208</v>
+      </c>
+      <c r="K54" s="16">
+        <v>190</v>
+      </c>
+      <c r="L54" s="23">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A55" s="20">
+        <v>5.5800000000000002E-2</v>
+      </c>
+      <c r="B55" s="9">
+        <v>171</v>
+      </c>
+      <c r="C55" s="9">
+        <v>137</v>
+      </c>
+      <c r="D55" s="9">
+        <v>72</v>
+      </c>
+      <c r="E55" s="2"/>
+      <c r="F55" s="13">
+        <v>144</v>
+      </c>
+      <c r="G55" s="13">
+        <v>121</v>
+      </c>
+      <c r="H55" s="13">
+        <v>86</v>
+      </c>
+      <c r="I55" s="2"/>
+      <c r="J55" s="16">
+        <v>209</v>
+      </c>
+      <c r="K55" s="16">
+        <v>189</v>
+      </c>
+      <c r="L55" s="23">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="24">
+        <v>5.5899999999999998E-2</v>
+      </c>
+      <c r="B56" s="25">
+        <v>170</v>
+      </c>
+      <c r="C56" s="25">
+        <v>137</v>
+      </c>
+      <c r="D56" s="25">
+        <v>75</v>
+      </c>
+      <c r="E56" s="1"/>
+      <c r="F56" s="26">
+        <v>148</v>
+      </c>
+      <c r="G56" s="26">
+        <v>125</v>
+      </c>
+      <c r="H56" s="26">
+        <v>92</v>
+      </c>
+      <c r="I56" s="1"/>
+      <c r="J56" s="27">
+        <v>208</v>
+      </c>
+      <c r="K56" s="27">
+        <v>188</v>
+      </c>
+      <c r="L56" s="28">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A57" s="64" t="s">
         <v>10</v>
       </c>
-      <c r="K44" s="1"/>
-      <c r="L44" s="1"/>
-    </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A45">
-        <v>5.5800000000000002E-2</v>
-      </c>
-      <c r="B45">
-        <v>170</v>
-      </c>
-      <c r="C45">
+    </row>
+    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A58" s="18">
+        <f>(A53+A54+A55+A56)/4</f>
+        <v>5.5775000000000005E-2</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A60" s="63" t="s">
+        <v>29</v>
+      </c>
+      <c r="B60" s="34"/>
+      <c r="C60" s="34"/>
+      <c r="D60" s="34"/>
+      <c r="E60" s="19"/>
+      <c r="F60" s="36"/>
+      <c r="G60" s="36"/>
+      <c r="H60" s="36"/>
+      <c r="I60" s="19"/>
+      <c r="J60" s="35"/>
+      <c r="K60" s="35"/>
+      <c r="L60" s="37"/>
+    </row>
+    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A61" s="20">
+        <v>5.5300000000000002E-2</v>
+      </c>
+      <c r="B61" s="9">
+        <v>167</v>
+      </c>
+      <c r="C61" s="9">
+        <v>133</v>
+      </c>
+      <c r="D61" s="9">
+        <v>72</v>
+      </c>
+      <c r="E61" s="2"/>
+      <c r="F61" s="13">
         <v>135</v>
       </c>
-      <c r="D45">
-        <v>68</v>
-      </c>
-      <c r="F45">
-        <v>143</v>
-      </c>
-      <c r="G45">
-        <v>120</v>
-      </c>
-      <c r="H45">
-        <v>85</v>
-      </c>
-      <c r="J45">
+      <c r="G61" s="13">
+        <v>110</v>
+      </c>
+      <c r="H61" s="13">
+        <v>74</v>
+      </c>
+      <c r="I61" s="2"/>
+      <c r="J61" s="16">
         <v>209</v>
       </c>
-      <c r="K45">
+      <c r="K61" s="16">
         <v>189</v>
       </c>
-      <c r="L45">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A46">
-        <v>5.5599999999999997E-2</v>
-      </c>
-      <c r="B46">
+      <c r="L61" s="23">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A62" s="20">
+        <v>5.5399999999999998E-2</v>
+      </c>
+      <c r="B62" s="9">
         <v>164</v>
       </c>
-      <c r="C46">
-        <v>130</v>
-      </c>
-      <c r="D46">
+      <c r="C62" s="9">
+        <v>131</v>
+      </c>
+      <c r="D62" s="9">
+        <v>69</v>
+      </c>
+      <c r="E62" s="2"/>
+      <c r="F62" s="13">
+        <v>139</v>
+      </c>
+      <c r="G62" s="13">
+        <v>115</v>
+      </c>
+      <c r="H62" s="13">
+        <v>79</v>
+      </c>
+      <c r="I62" s="2"/>
+      <c r="J62" s="16">
+        <v>209</v>
+      </c>
+      <c r="K62" s="16">
+        <v>189</v>
+      </c>
+      <c r="L62" s="23">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="63" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A63" s="20">
+        <v>5.6000000000000001E-2</v>
+      </c>
+      <c r="B63" s="9">
+        <v>158</v>
+      </c>
+      <c r="C63" s="9">
+        <v>124</v>
+      </c>
+      <c r="D63" s="9">
         <v>66</v>
       </c>
-      <c r="F46">
-        <v>144</v>
-      </c>
-      <c r="G46">
+      <c r="E63" s="2"/>
+      <c r="F63" s="13">
+        <v>123</v>
+      </c>
+      <c r="G63" s="13">
+        <v>101</v>
+      </c>
+      <c r="H63" s="13">
+        <v>70</v>
+      </c>
+      <c r="I63" s="2"/>
+      <c r="J63" s="16">
+        <v>203</v>
+      </c>
+      <c r="K63" s="16">
+        <v>185</v>
+      </c>
+      <c r="L63" s="23">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="64" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A64" s="20">
+        <v>5.5899999999999998E-2</v>
+      </c>
+      <c r="B64" s="9">
+        <v>158</v>
+      </c>
+      <c r="C64" s="9">
+        <v>123</v>
+      </c>
+      <c r="D64" s="9">
+        <v>66</v>
+      </c>
+      <c r="E64" s="2"/>
+      <c r="F64" s="13">
         <v>121</v>
       </c>
-      <c r="H46">
-        <v>86</v>
-      </c>
-      <c r="J46">
-        <v>208</v>
-      </c>
-      <c r="K46">
-        <v>190</v>
-      </c>
-      <c r="L46">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A47">
-        <v>5.5800000000000002E-2</v>
-      </c>
-      <c r="B47">
-        <v>171</v>
-      </c>
-      <c r="C47">
-        <v>137</v>
-      </c>
-      <c r="D47">
-        <v>72</v>
-      </c>
-      <c r="F47">
-        <v>144</v>
-      </c>
-      <c r="G47">
-        <v>121</v>
-      </c>
-      <c r="H47">
-        <v>86</v>
-      </c>
-      <c r="J47">
-        <v>209</v>
-      </c>
-      <c r="K47">
-        <v>189</v>
-      </c>
-      <c r="L47">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="48" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A48">
-        <v>5.5899999999999998E-2</v>
-      </c>
-      <c r="B48">
-        <v>170</v>
-      </c>
-      <c r="C48">
-        <v>137</v>
-      </c>
-      <c r="D48">
-        <v>75</v>
-      </c>
-      <c r="F48">
-        <v>148</v>
-      </c>
-      <c r="G48">
-        <v>125</v>
-      </c>
-      <c r="H48">
-        <v>92</v>
-      </c>
-      <c r="J48">
-        <v>208</v>
-      </c>
-      <c r="K48">
-        <v>188</v>
-      </c>
-      <c r="L48">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A49" s="8" t="s">
+      <c r="G64" s="13">
+        <v>98</v>
+      </c>
+      <c r="H64" s="13">
+        <v>67</v>
+      </c>
+      <c r="I64" s="2"/>
+      <c r="J64" s="16">
+        <v>203</v>
+      </c>
+      <c r="K64" s="16">
+        <v>185</v>
+      </c>
+      <c r="L64" s="23">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="65" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A65" s="66" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="50" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="9">
-        <f>(A45+A46+A47+A48)/4</f>
-        <v>5.5775000000000005E-2</v>
-      </c>
-    </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A52">
-        <v>5.5300000000000002E-2</v>
-      </c>
-      <c r="B52">
-        <v>167</v>
-      </c>
-      <c r="C52">
-        <v>133</v>
-      </c>
-      <c r="D52">
-        <v>72</v>
-      </c>
-      <c r="F52">
-        <v>135</v>
-      </c>
-      <c r="G52">
-        <v>110</v>
-      </c>
-      <c r="H52">
-        <v>74</v>
-      </c>
-      <c r="J52">
-        <v>209</v>
-      </c>
-      <c r="K52">
-        <v>189</v>
-      </c>
-      <c r="L52">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A53">
-        <v>5.5399999999999998E-2</v>
-      </c>
-      <c r="B53">
-        <v>164</v>
-      </c>
-      <c r="C53">
-        <v>131</v>
-      </c>
-      <c r="D53">
-        <v>69</v>
-      </c>
-      <c r="F53">
-        <v>139</v>
-      </c>
-      <c r="G53">
-        <v>115</v>
-      </c>
-      <c r="H53">
-        <v>79</v>
-      </c>
-      <c r="J53">
-        <v>209</v>
-      </c>
-      <c r="K53">
-        <v>189</v>
-      </c>
-      <c r="L53">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A54">
-        <v>5.6000000000000001E-2</v>
-      </c>
-      <c r="B54">
-        <v>158</v>
-      </c>
-      <c r="C54">
-        <v>124</v>
-      </c>
-      <c r="D54">
-        <v>66</v>
-      </c>
-      <c r="F54">
-        <v>123</v>
-      </c>
-      <c r="G54">
-        <v>101</v>
-      </c>
-      <c r="H54">
-        <v>70</v>
-      </c>
-      <c r="J54">
-        <v>203</v>
-      </c>
-      <c r="K54">
-        <v>185</v>
-      </c>
-      <c r="L54">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="55" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A55">
-        <v>5.5899999999999998E-2</v>
-      </c>
-      <c r="B55">
-        <v>158</v>
-      </c>
-      <c r="C55">
-        <v>123</v>
-      </c>
-      <c r="D55">
-        <v>66</v>
-      </c>
-      <c r="F55">
-        <v>121</v>
-      </c>
-      <c r="G55">
-        <v>98</v>
-      </c>
-      <c r="H55">
-        <v>67</v>
-      </c>
-      <c r="J55">
-        <v>203</v>
-      </c>
-      <c r="K55">
-        <v>185</v>
-      </c>
-      <c r="L55">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A56" s="8" t="s">
+      <c r="B65" s="69" t="s">
+        <v>15</v>
+      </c>
+      <c r="C65" s="69"/>
+      <c r="D65" s="69"/>
+      <c r="E65" s="2"/>
+      <c r="F65" s="70" t="s">
         <v>12</v>
       </c>
-      <c r="B56" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C56" s="3"/>
-      <c r="D56" s="4"/>
-      <c r="F56" s="2" t="s">
+      <c r="G65" s="70"/>
+      <c r="H65" s="70"/>
+      <c r="I65" s="2"/>
+      <c r="J65" s="71" t="s">
         <v>13</v>
       </c>
-      <c r="G56" s="3"/>
-      <c r="H56" s="4"/>
-      <c r="J56" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="K56" s="3"/>
-      <c r="L56" s="4"/>
-    </row>
-    <row r="57" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="9">
-        <f>(A52+A53+A54+A55)/4</f>
+      <c r="K65" s="71"/>
+      <c r="L65" s="72"/>
+    </row>
+    <row r="66" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A66" s="29">
+        <f>(A61+A62+A63+A64)/4</f>
         <v>5.5649999999999998E-2</v>
       </c>
-      <c r="B57" s="5">
-        <f>SUM(B45:B55) / 8</f>
+      <c r="B66" s="30">
+        <f>SUM(B53:B64) / 8</f>
         <v>165.25</v>
       </c>
-      <c r="C57" s="5">
-        <f t="shared" ref="C57:H57" si="2">SUM(C45:C55) / 8</f>
+      <c r="C66" s="30">
+        <f t="shared" ref="C66:H66" si="2">SUM(C53:C64) / 8</f>
         <v>131.25</v>
       </c>
-      <c r="D57" s="5">
+      <c r="D66" s="30">
         <f t="shared" si="2"/>
         <v>69.25</v>
       </c>
-      <c r="E57" s="5"/>
-      <c r="F57" s="5">
+      <c r="E66" s="1"/>
+      <c r="F66" s="31">
         <f t="shared" si="2"/>
         <v>137.125</v>
       </c>
-      <c r="G57" s="5">
+      <c r="G66" s="31">
         <f t="shared" si="2"/>
         <v>113.875</v>
       </c>
-      <c r="H57" s="5">
+      <c r="H66" s="31">
         <f t="shared" si="2"/>
         <v>79.875</v>
       </c>
-      <c r="J57" s="5">
-        <f t="shared" ref="G57:L57" si="3">(J45+J46+J47+J48+J52+J53+J54+J55)/8</f>
+      <c r="I66" s="1"/>
+      <c r="J66" s="32">
+        <f t="shared" ref="J66:L66" si="3">(J53+J54+J55+J56+J61+J62+J63+J64)/8</f>
         <v>207.25</v>
       </c>
-      <c r="K57" s="6">
+      <c r="K66" s="32">
         <f t="shared" si="3"/>
         <v>188</v>
       </c>
-      <c r="L57" s="7">
+      <c r="L66" s="33">
         <f t="shared" si="3"/>
         <v>161.75</v>
       </c>
     </row>
-    <row r="59" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A60" s="8" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="61" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="9">
-        <f>(A7+A14+A21+A36+A29+A43+A50+A57)/8</f>
+    <row r="67" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="E67" s="2"/>
+    </row>
+    <row r="68" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="E68" s="2"/>
+    </row>
+    <row r="69" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="A69" s="73" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="70" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A70" s="18">
+        <f>(A8+A16+A24+A41+A33+A49+A58+A66)/8</f>
         <v>5.5384375E-2</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="10">
+    <mergeCell ref="B65:D65"/>
+    <mergeCell ref="F65:H65"/>
+    <mergeCell ref="J65:L65"/>
+    <mergeCell ref="B48:D48"/>
+    <mergeCell ref="B51:D51"/>
+    <mergeCell ref="F51:H51"/>
+    <mergeCell ref="J51:L51"/>
     <mergeCell ref="B1:D1"/>
-    <mergeCell ref="B20:D20"/>
     <mergeCell ref="B23:D23"/>
-    <mergeCell ref="F44:H44"/>
-    <mergeCell ref="J44:L44"/>
-    <mergeCell ref="B56:D56"/>
-    <mergeCell ref="F56:H56"/>
-    <mergeCell ref="J56:L56"/>
-    <mergeCell ref="B42:D42"/>
+    <mergeCell ref="B26:D26"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Donnees .xlsx
+++ b/Donnees .xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -509,6 +509,21 @@
     <xf numFmtId="0" fontId="1" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -537,21 +552,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -875,8 +875,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{76937D94-5561-4F0F-AC60-CAD19876EAF5}">
   <dimension ref="A1:L70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="B49" sqref="B49"/>
+    <sheetView tabSelected="1" topLeftCell="A47" workbookViewId="0">
+      <selection activeCell="H66" sqref="H66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -888,11 +888,11 @@
       <c r="A1" s="55" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="69" t="s">
+      <c r="B1" s="59" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="69"/>
-      <c r="D1" s="70"/>
+      <c r="C1" s="59"/>
+      <c r="D1" s="60"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="20"/>
@@ -1118,11 +1118,11 @@
       <c r="A23" s="56" t="s">
         <v>3</v>
       </c>
-      <c r="B23" s="71" t="s">
+      <c r="B23" s="61" t="s">
         <v>7</v>
       </c>
-      <c r="C23" s="71"/>
-      <c r="D23" s="71"/>
+      <c r="C23" s="61"/>
+      <c r="D23" s="61"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="43">
@@ -1156,11 +1156,11 @@
       <c r="A26" s="55" t="s">
         <v>25</v>
       </c>
-      <c r="B26" s="72" t="s">
+      <c r="B26" s="62" t="s">
         <v>20</v>
       </c>
-      <c r="C26" s="72"/>
-      <c r="D26" s="73"/>
+      <c r="C26" s="62"/>
+      <c r="D26" s="63"/>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="20"/>
@@ -1386,11 +1386,11 @@
       <c r="A48" s="57" t="s">
         <v>6</v>
       </c>
-      <c r="B48" s="63" t="s">
+      <c r="B48" s="68" t="s">
         <v>14</v>
       </c>
-      <c r="C48" s="63"/>
-      <c r="D48" s="64"/>
+      <c r="C48" s="68"/>
+      <c r="D48" s="69"/>
     </row>
     <row r="49" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A49" s="29">
@@ -1426,23 +1426,23 @@
       <c r="A51" s="55" t="s">
         <v>28</v>
       </c>
-      <c r="B51" s="65" t="s">
+      <c r="B51" s="70" t="s">
         <v>19</v>
       </c>
-      <c r="C51" s="65"/>
-      <c r="D51" s="65"/>
+      <c r="C51" s="70"/>
+      <c r="D51" s="70"/>
       <c r="E51" s="19"/>
-      <c r="F51" s="66" t="s">
+      <c r="F51" s="71" t="s">
         <v>8</v>
       </c>
-      <c r="G51" s="66"/>
-      <c r="H51" s="66"/>
+      <c r="G51" s="71"/>
+      <c r="H51" s="71"/>
       <c r="I51" s="19"/>
-      <c r="J51" s="67" t="s">
+      <c r="J51" s="72" t="s">
         <v>9</v>
       </c>
-      <c r="K51" s="67"/>
-      <c r="L51" s="68"/>
+      <c r="K51" s="72"/>
+      <c r="L51" s="73"/>
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A52" s="20"/>
@@ -1780,23 +1780,23 @@
       <c r="A65" s="57" t="s">
         <v>11</v>
       </c>
-      <c r="B65" s="59" t="s">
+      <c r="B65" s="64" t="s">
         <v>15</v>
       </c>
-      <c r="C65" s="59"/>
-      <c r="D65" s="59"/>
+      <c r="C65" s="64"/>
+      <c r="D65" s="64"/>
       <c r="E65" s="2"/>
-      <c r="F65" s="60" t="s">
+      <c r="F65" s="65" t="s">
         <v>12</v>
       </c>
-      <c r="G65" s="60"/>
-      <c r="H65" s="60"/>
+      <c r="G65" s="65"/>
+      <c r="H65" s="65"/>
       <c r="I65" s="2"/>
-      <c r="J65" s="61" t="s">
+      <c r="J65" s="66" t="s">
         <v>13</v>
       </c>
-      <c r="K65" s="61"/>
-      <c r="L65" s="62"/>
+      <c r="K65" s="66"/>
+      <c r="L65" s="67"/>
     </row>
     <row r="66" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A66" s="29">
@@ -1873,16 +1873,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="J65:L65"/>
+    <mergeCell ref="B48:D48"/>
+    <mergeCell ref="B51:D51"/>
+    <mergeCell ref="F51:H51"/>
+    <mergeCell ref="J51:L51"/>
     <mergeCell ref="B1:D1"/>
     <mergeCell ref="B23:D23"/>
     <mergeCell ref="B26:D26"/>
     <mergeCell ref="B65:D65"/>
     <mergeCell ref="F65:H65"/>
-    <mergeCell ref="J65:L65"/>
-    <mergeCell ref="B48:D48"/>
-    <mergeCell ref="B51:D51"/>
-    <mergeCell ref="F51:H51"/>
-    <mergeCell ref="J51:L51"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
